--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772060.3755634686</v>
+        <v>805313.1132010308</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9257225.343530988</v>
+        <v>9987357.920216883</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5370379.756827485</v>
+        <v>6287139.264030257</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9951380.064486263</v>
+        <v>9577044.534535578</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.6609890346908</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>13.72101765531088</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>364.0683217201758</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>336.5765604298717</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.6110214165327</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>298.1689170259747</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.88196987815823</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>198.9793953464987</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
         <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.2582398728939</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.16034849356</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.2570059982656</v>
@@ -1548,7 +1548,7 @@
         <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
-        <v>27.44080530455592</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.792004777349866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>6.460433612040173</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.9631006049514</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>156.5892371762726</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>307.3555190207408</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.04518470759552</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>105.0023863360924</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>8.915218264396628</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>33.65999533764788</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>50.59633317210058</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>18.61577653206208</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>198.7926393862099</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>56.28658517122754</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.2921719134791</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>90.40834918925317</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.59751212389969</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>166.9911804315842</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>125.0132180293218</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,19 +2608,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>160.4527165270845</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.4908346647291</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.169847120579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>245.8822293545893</v>
       </c>
       <c r="F29" t="n">
-        <v>256.7321788826959</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>157.1290712416209</v>
       </c>
       <c r="W31" t="n">
-        <v>201.0130390227251</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>288.2874558380274</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>158.5419697125529</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.92708888544222</v>
+        <v>130.7914757711628</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>154.4221920189732</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>177.6083916111193</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>28.20584125154427</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>264.4736234408113</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>195.0465954186446</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>201.7225186287558</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.19292662790653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926706</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>19.17942532182214</v>
       </c>
       <c r="C41" t="n">
-        <v>267.3172025050101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>158.0933671656953</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77.92383158564684</v>
+        <v>248.7037096442069</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>88.23797643592289</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.02146927219756</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.15301396162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="3">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.638474227114</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
         <v>882.8926947117852</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.638474227114</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1209.912517095719</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C8" t="n">
-        <v>1209.912517095719</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.912517095719</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E8" t="n">
-        <v>1209.912517095719</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>798.9266123061118</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>1008.534194590694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1209.912517095719</v>
+        <v>618.3948626148824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,37 +4889,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.3995170508273</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C10" t="n">
-        <v>111.3995170508273</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D10" t="n">
-        <v>111.3995170508273</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E10" t="n">
-        <v>111.3995170508273</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F10" t="n">
-        <v>111.3995170508273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>111.3995170508273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y10" t="n">
-        <v>293.047981881067</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1700.668977292591</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.706460352179</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>973.4407617454285</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>973.4407617454285</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>772.451473516642</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>356.8584014423642</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5047,10 +5047,10 @@
         <v>468.4264940665502</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552593</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N11" t="n">
         <v>1738.603625623768</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.576964538517</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.576964538517</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.808309268402</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="X11" t="n">
-        <v>2090.808309268402</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y11" t="n">
-        <v>1700.668977292591</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>121.8264159807866</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>577.8254266426379</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L12" t="n">
-        <v>1053.207508523572</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M12" t="n">
-        <v>1431.308314177373</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.824967998517</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.82927303483</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.986726597623</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.6300687565803</v>
+        <v>751.889504145913</v>
       </c>
       <c r="C13" t="n">
-        <v>692.6938858286734</v>
+        <v>751.889504145913</v>
       </c>
       <c r="D13" t="n">
-        <v>692.6938858286734</v>
+        <v>622.4346066776706</v>
       </c>
       <c r="E13" t="n">
-        <v>544.7807922462803</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="F13" t="n">
-        <v>397.8908447483699</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G13" t="n">
-        <v>229.9544750531521</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H13" t="n">
-        <v>81.66096697648155</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5229,22 +5229,22 @@
         <v>1492.060663628367</v>
       </c>
       <c r="T13" t="n">
-        <v>1492.060663628367</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U13" t="n">
-        <v>1492.060663628367</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.060663628367</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="W13" t="n">
-        <v>1492.060663628367</v>
+        <v>979.8790550439303</v>
       </c>
       <c r="X13" t="n">
-        <v>1264.07111273035</v>
+        <v>751.889504145913</v>
       </c>
       <c r="Y13" t="n">
-        <v>1043.27853358682</v>
+        <v>751.889504145913</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1303.529887077737</v>
+        <v>725.820918382776</v>
       </c>
       <c r="C14" t="n">
-        <v>934.5673701373257</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="D14" t="n">
-        <v>934.5673701373257</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2690.62340050101</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>2482.366630433609</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2228.794503953904</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2228.794503953904</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>1876.025848683789</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>1502.560090422709</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>1112.420758446898</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.4780323548191</v>
+        <v>633.8065498739803</v>
       </c>
       <c r="C16" t="n">
-        <v>364.5418494269122</v>
+        <v>464.8703669460734</v>
       </c>
       <c r="D16" t="n">
-        <v>214.4252100145765</v>
+        <v>464.8703669460734</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>316.9572733636803</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>170.06732586577</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>1144.016299054471</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971289</v>
+        <v>854.5991290175104</v>
       </c>
       <c r="X16" t="n">
-        <v>935.919076328589</v>
+        <v>854.5991290175104</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.1264971850588</v>
+        <v>633.8065498739803</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>1999.967318387914</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371781</v>
+        <v>1631.004801447503</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.544681224532</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218339</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218339</v>
+        <v>523.7705238366804</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>254.0744928369596</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319026</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2111.554760801562</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3005.54648435641</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3252.534341412642</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475974</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475974</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3310.796077475974</v>
       </c>
       <c r="U17" t="n">
-        <v>3013.565057492288</v>
+        <v>3057.264619262679</v>
       </c>
       <c r="V17" t="n">
-        <v>2682.502170148718</v>
+        <v>2726.201731919109</v>
       </c>
       <c r="W17" t="n">
-        <v>2329.733514878603</v>
+        <v>2373.433076648994</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>1999.967318387914</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641711</v>
+        <v>1999.967318387914</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142898</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331628</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664561</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933411</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365749</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912742</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>396.5106591183475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>761.8119001858319</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537446</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.6489789975183</v>
+        <v>214.1290151319126</v>
       </c>
       <c r="C19" t="n">
-        <v>691.6489789975183</v>
+        <v>214.1290151319126</v>
       </c>
       <c r="D19" t="n">
-        <v>541.5323395851825</v>
+        <v>214.1290151319126</v>
       </c>
       <c r="E19" t="n">
-        <v>393.6192460027894</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="F19" t="n">
-        <v>246.729298504879</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951948</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>314.3177428179432</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886844</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>973.387187989797</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580892</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1729.869392788395</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1508.079263400104</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1218.976096347563</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>964.2916081416762</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971288</v>
+        <v>674.8744381047156</v>
       </c>
       <c r="X19" t="n">
-        <v>1094.090022971288</v>
+        <v>446.8848872066983</v>
       </c>
       <c r="Y19" t="n">
-        <v>873.297443827758</v>
+        <v>395.7774799621523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1405.52688261361</v>
+        <v>1293.226294099659</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.564365673198</v>
+        <v>924.2637771592476</v>
       </c>
       <c r="D20" t="n">
-        <v>678.2986670664475</v>
+        <v>905.4599624803971</v>
       </c>
       <c r="E20" t="n">
-        <v>678.2986670664475</v>
+        <v>519.6717098821529</v>
       </c>
       <c r="F20" t="n">
-        <v>267.3127622768399</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369591</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319019</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>2994.19438516353</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267228</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923657</v>
+        <v>2409.600039606665</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653543</v>
+        <v>2056.831384336551</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.266054653543</v>
+        <v>1683.365626075471</v>
       </c>
       <c r="Y20" t="n">
-        <v>1792.126722677731</v>
+        <v>1293.226294099659</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T22" t="n">
-        <v>1620.162025618876</v>
+        <v>1699.861054503353</v>
       </c>
       <c r="U22" t="n">
-        <v>1620.162025618876</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V22" t="n">
-        <v>1365.477537412989</v>
+        <v>1156.073399244925</v>
       </c>
       <c r="W22" t="n">
-        <v>1076.060367376028</v>
+        <v>866.6562292079639</v>
       </c>
       <c r="X22" t="n">
-        <v>848.0708164780106</v>
+        <v>638.6666783099465</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.0708164780106</v>
+        <v>417.8740991664164</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608906</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814245</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644074</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870721</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3805104860112</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3805104860112</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1695.367165644763</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.264298770406</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V25" t="n">
-        <v>1151.579810564519</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W25" t="n">
-        <v>862.1626405275587</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X25" t="n">
-        <v>634.1730896295413</v>
+        <v>902.9178571407958</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.3805104860112</v>
+        <v>682.1252779972657</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2357.736573285784</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C26" t="n">
-        <v>1988.774056345372</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>1630.508357738622</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>1244.720105140377</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>833.7342003507699</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>418.6617501957664</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>121.0781498045336</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>601.7797556928742</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1466.298571346229</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2202.233469592336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3843.771883727214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3681.698432689755</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3428.167955963591</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>3097.10506862002</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>2744.336413349906</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X26" t="n">
-        <v>2744.336413349906</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y26" t="n">
-        <v>2744.336413349906</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>860.6399510898295</v>
+        <v>652.894418388452</v>
       </c>
       <c r="C28" t="n">
-        <v>691.7037681619227</v>
+        <v>483.9582354605451</v>
       </c>
       <c r="D28" t="n">
-        <v>541.5871287495869</v>
+        <v>483.9582354605451</v>
       </c>
       <c r="E28" t="n">
-        <v>393.6740351671938</v>
+        <v>483.9582354605451</v>
       </c>
       <c r="F28" t="n">
-        <v>246.7840876692834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>79.08125104400237</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1939.863682700312</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1748.177798527138</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1748.177798527138</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U28" t="n">
-        <v>1748.177798527138</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V28" t="n">
-        <v>1493.493310321251</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W28" t="n">
-        <v>1204.07614028429</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.07614028429</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y28" t="n">
-        <v>1042.288415920069</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.495602559257</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C29" t="n">
-        <v>1497.533085618845</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="D29" t="n">
-        <v>1139.267387012095</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="E29" t="n">
-        <v>753.4791344138503</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>494.1537011990059</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>79.08125104400237</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>79.08125104400237</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>922.6837141383273</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1668.701564920412</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>2202.233469592336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3954.062552200119</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3954.062552200119</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3700.532075473955</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>3369.469188130384</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>3016.70053286027</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X29" t="n">
-        <v>2643.23477459919</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y29" t="n">
-        <v>2253.095442623378</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.9371144645485</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>524.0009315366416</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>373.8842921243058</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>225.9711985419127</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>79.08125104400237</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1748.177798527138</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1526.411183096664</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1526.411183096664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1526.411183096664</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="W31" t="n">
-        <v>1323.367709336336</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.378158438318</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.5855792947882</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1940.366518446385</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C32" t="n">
-        <v>1571.404001505974</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D32" t="n">
-        <v>1213.138302899223</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>827.3500503009791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
-        <v>536.1505999595372</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>121.0781498045336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>121.0781498045336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>601.7797556928742</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.683166762508</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2202.233469592336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3843.771883727214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3637.794136111436</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3384.263659385272</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.200772041701</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2700.432116771587</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2326.966358510507</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y32" t="n">
-        <v>2326.966358510507</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>954.1129890929269</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>779.6599598117999</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>630.7255501505488</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>471.4880951450932</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>324.9535371719783</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>98.08854264246429</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>777.720879827632</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.520248604402</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2577.478323737675</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1792.177481811683</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>691.7037681619227</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C34" t="n">
-        <v>691.7037681619227</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D34" t="n">
-        <v>541.5871287495869</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E34" t="n">
-        <v>393.6740351671938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F34" t="n">
-        <v>246.7840876692834</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G34" t="n">
-        <v>79.08125104400237</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H34" t="n">
-        <v>79.08125104400237</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I34" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1939.863682700312</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.097067269838</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1718.097067269838</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>1463.412579063951</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W34" t="n">
-        <v>1173.99540902699</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X34" t="n">
-        <v>946.0058581289727</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="Y34" t="n">
-        <v>873.3522329921624</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2197.558489902827</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1828.595972962416</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1470.330274355665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1084.542021757421</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>673.5561169678133</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>258.4836668128098</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>435.3660310233809</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>769.1854047132274</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1220.219617961636</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1753.751522633561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2300.530339692343</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2803.50281057168</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3371.508027460075</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3829.986229969064</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3954.062552200119</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3700.532075473955</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3700.532075473955</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>3347.763420203841</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X35" t="n">
-        <v>2974.297661942761</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y35" t="n">
-        <v>2584.158329966949</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>254.4619472808463</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C37" t="n">
-        <v>254.4619472808463</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D37" t="n">
-        <v>254.4619472808463</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E37" t="n">
-        <v>225.9711985419127</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F37" t="n">
-        <v>79.08125104400237</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.097067269838</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1428.994200395481</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V37" t="n">
-        <v>1174.309712189594</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W37" t="n">
-        <v>884.8925421526335</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X37" t="n">
-        <v>656.9029912546162</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y37" t="n">
-        <v>436.110412111086</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.321240915451</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3128.589058560035</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2797.526171216464</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2033.921080979572</v>
+        <v>1494.749508092533</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>241.8928126690276</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7374,10 +7374,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218342</v>
@@ -7411,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995486</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8634178877041</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1619.798686923957</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C44" t="n">
-        <v>1250.836169983545</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
@@ -7663,37 +7663,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.50962791956</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
@@ -7751,16 +7751,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199866</v>
@@ -7772,7 +7772,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.4020639300938</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>302.5313330572886</v>
       </c>
       <c r="E46" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U46" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.0505287603335</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>97.95619053890903</v>
       </c>
       <c r="L12" t="n">
-        <v>169.6592766025881</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>17.26494649393206</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.95619053890903</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0.5463950602909051</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>204.4474682567504</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>297.963270236036</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>172.5951493143685</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>174.9806571022396</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.21505670702066</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22606,7 +22606,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>16.25857125419498</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>166.1109625266264</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>1.204570050831762</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>12.66440828754128</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1731486042623374</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>71.5621836524943</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>61.82274204898322</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>99.28891896363692</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207.8966503952128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
         <v>61.44749355031655</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>143.4728608055751</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>20.4551245246524</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.86436166343846</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>377.9418368861307</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.472363441742</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>51.29390539331413</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>69.12041821276455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>47.32752259994214</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U17" t="n">
-        <v>145.9927856228096</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.3658129213804</v>
+        <v>166.0312564930841</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>89.17712508496177</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>167.9883201799942</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>336.0672650886209</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>212.1290862672435</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>123.5453950107098</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
-        <v>105.2567773626901</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>279.3227514892159</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>150.9514371522695</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.71847495745297</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>240.2596737416858</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>43.46525361253563</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>42.93021335820217</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.41480623151574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>136.0481407176725</v>
       </c>
       <c r="F29" t="n">
-        <v>150.1438668590155</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>95.00857208220711</v>
       </c>
       <c r="W31" t="n">
-        <v>85.50995931386586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>118.588589903684</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>211.1891309659161</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.6575644666526</v>
+        <v>87.79317758093202</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>228.3116496445073</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>116.9993727762012</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,22 +25207,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.2281213950249</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>22.04937489577969</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>55.94857654025736</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>184.5154200272978</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.4225463903058</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>208.3807601228277</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>363.5544163416585</v>
       </c>
       <c r="C41" t="n">
-        <v>97.95568926599742</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304.8100100778337</v>
+        <v>134.0301320192737</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>58.19598621064628</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.5631840798972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788088.8099581593</v>
+        <v>788088.8099581595</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856762.3551823881</v>
+        <v>788088.8099581592</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856762.355182388</v>
+        <v>855142.5348868507</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856762.3551823882</v>
+        <v>855142.5348868506</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1017002.276962772</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926096.3367758164</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>926096.3367758165</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926096.3367758166</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926096.3367758166</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856762.3551823882</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856762.3551823881</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
         <v>312157.9037460884</v>
       </c>
       <c r="F2" t="n">
+        <v>312157.9037460884</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340317.4959346298</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340317.4959346299</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="J2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="G2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="I2" t="n">
-        <v>397081.786886983</v>
-      </c>
-      <c r="J2" t="n">
-        <v>365264.3020276902</v>
-      </c>
       <c r="K2" t="n">
-        <v>365264.3020276901</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="L2" t="n">
-        <v>365264.3020276903</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>365264.30202769</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709205</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502363</v>
+        <v>469045.4557502365</v>
       </c>
       <c r="F3" t="n">
-        <v>146359.9793562349</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>139380.1825493192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.9665973606</v>
+        <v>3258.83110131141</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793586</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>36918.69023451109</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>62518.47524617217</v>
       </c>
       <c r="D4" t="n">
-        <v>62518.47524617216</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
         <v>8233.309415547665</v>
       </c>
       <c r="F4" t="n">
+        <v>8233.309415547665</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4967.456039976109</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4967.456039976124</v>
+      </c>
+      <c r="I4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="G4" t="n">
-        <v>4890.851381993022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4890.851381992997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="J4" t="n">
-        <v>13631.1051102245</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="K4" t="n">
-        <v>13631.1051102245</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="L4" t="n">
-        <v>13631.10511022451</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="M4" t="n">
-        <v>13631.1051102245</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="N4" t="n">
         <v>4890.851381993015</v>
@@ -26481,37 +26481,37 @@
         <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74015.36825377266</v>
       </c>
       <c r="H5" t="n">
+        <v>74015.36825377263</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="J5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-452261.2362541878</v>
+        <v>-446799.6638829504</v>
       </c>
       <c r="C6" t="n">
-        <v>137706.6429603566</v>
+        <v>143168.2153315939</v>
       </c>
       <c r="D6" t="n">
-        <v>137706.6429603568</v>
+        <v>143168.215331594</v>
       </c>
       <c r="E6" t="n">
-        <v>-231997.8382477924</v>
+        <v>-227571.5040944201</v>
       </c>
       <c r="F6" t="n">
-        <v>111963.7383732385</v>
+        <v>241473.9516558163</v>
       </c>
       <c r="G6" t="n">
-        <v>258323.7177294732</v>
+        <v>121603.4721465743</v>
       </c>
       <c r="H6" t="n">
-        <v>258323.717729473</v>
+        <v>260983.6546958938</v>
       </c>
       <c r="I6" t="n">
-        <v>178376.6234586571</v>
+        <v>258193.4569964167</v>
       </c>
       <c r="J6" t="n">
-        <v>142986.2213265089</v>
+        <v>85029.06890513531</v>
       </c>
       <c r="K6" t="n">
-        <v>265511.4849058674</v>
+        <v>261452.2880977283</v>
       </c>
       <c r="L6" t="n">
-        <v>265511.4849058676</v>
+        <v>261452.288097728</v>
       </c>
       <c r="M6" t="n">
-        <v>265511.4849058673</v>
+        <v>261452.2880977281</v>
       </c>
       <c r="N6" t="n">
-        <v>258323.7177294731</v>
+        <v>261452.2880977282</v>
       </c>
       <c r="O6" t="n">
-        <v>258323.7177294731</v>
+        <v>224533.5978632169</v>
       </c>
       <c r="P6" t="n">
-        <v>258323.7177294733</v>
+        <v>261452.2880977282</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>961.5670451980344</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>827.6990193689934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>827.699019368993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1194.51293060493</v>
-      </c>
-      <c r="J4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="K4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="M4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809477</v>
+        <v>583.8233809809478</v>
       </c>
       <c r="F3" t="n">
-        <v>128.2096553952639</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>125.1883619642527</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>157.114182647737</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>153.4117466144378</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026376</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="J4" t="n">
-        <v>468.2899801996552</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>153.4117466144379</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>157.114182647737</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>153.4117466144378</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.368865958441353</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.74264849688751</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>555.7361331610846</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>689.4398147367342</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>767.1346347251656</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>779.5476751295872</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>736.1047642553359</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>628.248385906315</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>471.7883737696339</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.55553302798241</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307703</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3495092766753081</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349071</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.48141458701845</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>220.8471530724796</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178673</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>507.5455323732928</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>592.2816969034465</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>607.9576310312874</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>556.1624582295527</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>446.3694048776572</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>298.3861261325586</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.4189542389838</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.421964331906995</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.959722865374616</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>58.93421126053847</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>276.9979191894958</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358535</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815054</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.11626629220771</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.1526248447558</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.373361333873357</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>460.6050612745973</v>
+        <v>294.0960148009277</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1839210918526</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
         <v>381.9200057109104</v>
@@ -35509,7 +35509,7 @@
         <v>260.9756493199342</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009277</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>335.646282116104</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>453.673399766747</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>536.7884014978929</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>550.1346115329964</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>506.0065528336492</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>397.0153901510454</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>249.4826838951844</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>58.85023844780972</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.00952640581286</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435083</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>368.9911525934186</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>450.1476629814281</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>476.6159189479541</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>413.5662137851083</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>312.394997463325</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.19322646531256</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>205.4146738058225</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>318.9473683542841</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>301.5830471035355</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.298132000747</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>77.93802322981098</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193706</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36600,10 +36600,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>743.3685840869772</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>753.5533846283681</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>628.1852637067007</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37323,13 +37323,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>573.7426433216115</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
